--- a/mcc.xlsx
+++ b/mcc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>18102C2030</t>
   </si>
@@ -32,19 +32,64 @@
     <t>siddhesh jadhav</t>
   </si>
   <si>
-    <t>18102C2057</t>
-  </si>
-  <si>
-    <t>aqib qureshi</t>
-  </si>
-  <si>
-    <t>18102C2025</t>
-  </si>
-  <si>
-    <t>laxit jadhav</t>
-  </si>
-  <si>
     <t>https://github.com/JunedDev/attendance/blob/main/cc.PNG?raw=true</t>
+  </si>
+  <si>
+    <t>18102C2031</t>
+  </si>
+  <si>
+    <t>18102C2032</t>
+  </si>
+  <si>
+    <t>18102C2033</t>
+  </si>
+  <si>
+    <t>18102C2034</t>
+  </si>
+  <si>
+    <t>18102C2035</t>
+  </si>
+  <si>
+    <t>18102C2036</t>
+  </si>
+  <si>
+    <t>18102C2037</t>
+  </si>
+  <si>
+    <t>18102C2038</t>
+  </si>
+  <si>
+    <t>18102C2039</t>
+  </si>
+  <si>
+    <t>18102C2040</t>
+  </si>
+  <si>
+    <t>18102C2041</t>
+  </si>
+  <si>
+    <t>18102C2042</t>
+  </si>
+  <si>
+    <t>18102C2043</t>
+  </si>
+  <si>
+    <t>18102C2044</t>
+  </si>
+  <si>
+    <t>18102C2045</t>
+  </si>
+  <si>
+    <t>18102C2046</t>
+  </si>
+  <si>
+    <t>18102C2047</t>
+  </si>
+  <si>
+    <t>18102C2048</t>
+  </si>
+  <si>
+    <t>18102C2049</t>
   </si>
 </sst>
 </file>
@@ -396,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,15 +510,15 @@
         <v>50</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -514,7 +559,7 @@
         <v>55.000000000000007</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -522,48 +567,881 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="0">SUM(C3:K3)</f>
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <f>(L4/M3)*100</f>
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>SUM(C3:K3)</f>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N20" si="1">(L5/M4)*100</f>
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <f>(L3/M3)*100</f>
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
